--- a/nicnbk-data/nicnbk-data-service-impl/src/main/resources/export_template/TEMPLATE_NICKMF_cons_KZT_3.xlsx
+++ b/nicnbk-data/nicnbk-data-service-impl/src/main/resources/export_template/TEMPLATE_NICKMF_cons_KZT_3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magzumov\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magzumov\IdeaProjects\unic\nicnbk-data\nicnbk-data-service-impl\src\main\resources\export_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,9 +18,9 @@
     <definedName name="GR_CODE_ROW">4583</definedName>
     <definedName name="GR_CODE_SHEET">4</definedName>
     <definedName name="_xlnm.Database">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ОПСД_3!$A$1:$D$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ОПСД_3!$A$1:$D$45</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateCount="10000" iterateDelta="1E-10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Код формы</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>по состоянию на дату</t>
+  </si>
+  <si>
+    <t>&lt;dd.MM.yyyy&gt;</t>
   </si>
 </sst>
 </file>
@@ -191,7 +194,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.000_р_._-;\-* #,##0.000_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,19 +262,18 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman Cyr"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -399,8 +401,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -413,11 +418,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -739,10 +741,10 @@
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,8 +1344,8 @@
         <v>3</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="41">
-        <v>42948</v>
+      <c r="C2" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -1394,20 +1396,20 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -1452,7 +1454,7 @@
       <c r="A15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="47">
+      <c r="B15" s="41">
         <v>1</v>
       </c>
       <c r="C15" s="38"/>
@@ -1463,7 +1465,7 @@
       <c r="A16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="48">
+      <c r="B16" s="42">
         <v>2</v>
       </c>
       <c r="C16" s="13"/>
@@ -1555,7 +1557,7 @@
       <c r="A25" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="48" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="40"/>
@@ -1589,7 +1591,7 @@
       <c r="A28" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="48">
+      <c r="B28" s="42">
         <v>6</v>
       </c>
       <c r="C28" s="40"/>
@@ -1598,135 +1600,143 @@
       <c r="G28" s="12"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="48">
-        <v>7</v>
-      </c>
+      <c r="A29" s="23"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="40"/>
       <c r="D29" s="38"/>
+      <c r="E29" s="15"/>
       <c r="G29" s="12"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
+      <c r="A30" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="42">
+        <v>7</v>
+      </c>
+      <c r="C30" s="40"/>
+      <c r="D30" s="38"/>
+      <c r="G30" s="12"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="24"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="45"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="46"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-    </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="43" t="s">
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="29"/>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="45"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="43" t="s">
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="46"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="45"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="46"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="30" t="s">
+      <c r="C37" s="1"/>
+      <c r="D37" s="30" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="32" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
+      <c r="B38" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="31"/>
+      <c r="D38" s="32" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="30"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
       <c r="D39" s="30"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="33"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="32"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="30"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="32"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="34"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
       <c r="B43" s="31"/>
       <c r="C43" s="31"/>
       <c r="D43" s="31"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="36" t="s">
+      <c r="A44" s="1"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="34"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="31"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C46" s="37"/>
+      <c r="D45" s="31"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C47" s="22"/>
+      <c r="C47" s="37"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C48" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A32:D32"/>
     <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/nicnbk-data/nicnbk-data-service-impl/src/main/resources/export_template/TEMPLATE_NICKMF_cons_KZT_3.xlsx
+++ b/nicnbk-data/nicnbk-data-service-impl/src/main/resources/export_template/TEMPLATE_NICKMF_cons_KZT_3.xlsx
@@ -305,7 +305,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -407,6 +407,9 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -418,9 +421,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -744,7 +747,7 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,20 +1399,20 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -1457,8 +1460,8 @@
       <c r="B15" s="41">
         <v>1</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
       <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1468,8 +1471,8 @@
       <c r="B16" s="42">
         <v>2</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1557,7 +1560,7 @@
       <c r="A25" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="43" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="40"/>
@@ -1594,8 +1597,8 @@
       <c r="B28" s="42">
         <v>6</v>
       </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="38"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="49"/>
       <c r="E28" s="15"/>
       <c r="G28" s="12"/>
     </row>
@@ -1614,8 +1617,8 @@
       <c r="B30" s="42">
         <v>7</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="38"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="49"/>
       <c r="G30" s="12"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1625,12 +1628,12 @@
       <c r="D31" s="26"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="47"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
@@ -1641,20 +1644,20 @@
       <c r="D33" s="29"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="46"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="47"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="46"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="47"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">

--- a/nicnbk-data/nicnbk-data-service-impl/src/main/resources/export_template/TEMPLATE_NICKMF_cons_KZT_3.xlsx
+++ b/nicnbk-data/nicnbk-data-service-impl/src/main/resources/export_template/TEMPLATE_NICKMF_cons_KZT_3.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Код формы</t>
   </si>
@@ -74,127 +74,87 @@
     <t>Чистая прибыль (убыток)</t>
   </si>
   <si>
-    <t>Прочий совокупный доход</t>
-  </si>
-  <si>
-    <t>Резерв по переоценке финансовых активов, имеющихся в наличии для продажи всего (сумма строк 3.1-3.3)</t>
-  </si>
-  <si>
-    <t>- чистое изменение справедливой стоимости</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>- чистое изменение справедливой стоимости, перенесенное в состав прибыли или убытка</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- обесценение, перенесенное в состав прибыли или убытка </t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>Переоценка основных средств всего (сумма строк 4.1-4.3)</t>
-  </si>
-  <si>
-    <t>- изменение стоимости от переоценки</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>- перенос переоценки основных средств при амортизации</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>- перенос переоценки основных средств при выбытии</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>Прочие операции (сумма строк 5.1-5.2)</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>- резерв на пересчет иностранной валюты по зарубежной деятельности</t>
-  </si>
-  <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>- прочие</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>Прочий совокупный доход (сумма строк 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>* Заполнение строки 1 осуществляется путем переноса сумм из строки 20 Отчета о прибылях и убытках (Приложение 2)</t>
-  </si>
-  <si>
-    <t>** Для КФГД заполнение строки 1 осуществляется путем переноса сумм из строки 32 Отчета о прибылях и убытках (Приложение 24)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*** При заполнении гр.3, гр.4 и гр.5 положительное изменение отражается со знаком плюс, отрицательное изменение со знаком минус </t>
-  </si>
-  <si>
-    <t>**** Суммы по строкам 3.1-3.3, 4.1-4.3, 5.1-5.2 заполняются с нарастающим итогом с начала отчетного года</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Руководитель </t>
-  </si>
-  <si>
-    <t>_________________</t>
-  </si>
-  <si>
-    <t>(фамилия и инициалы)</t>
-  </si>
-  <si>
-    <t>подпись</t>
-  </si>
-  <si>
-    <t>фамилия и номер телефона исполнителя</t>
-  </si>
-  <si>
     <t>Подписи скрепляются печатью</t>
   </si>
   <si>
     <t>Наименование организации: NICK Master Fund Ltd.</t>
   </si>
   <si>
-    <t>Итого совокупного дохода (сумма строк 1, 6)</t>
-  </si>
-  <si>
-    <t>Рысбеков С.Д.</t>
-  </si>
-  <si>
     <t>по состоянию на дату</t>
   </si>
   <si>
     <t>&lt;dd.MM.yyyy&gt;</t>
+  </si>
+  <si>
+    <t>Прочий совокупный доход за вычетом подоходного налога</t>
+  </si>
+  <si>
+    <t>Статьи, которые реклассифицированы или могут быть впоследствии реклассифицированы в состав прибыли или убытка:</t>
+  </si>
+  <si>
+    <t>Чистое изменение справедливой стоимости финансовых активов, учитываемых по справедливой стоимости через прочий совокупный доход</t>
+  </si>
+  <si>
+    <t>Чистое изменение справедливой стоимости финансовых активов, учитываемых по справедливой стоимости через прочий совокупный доход, перенесенное в состав прибыли или убытка</t>
+  </si>
+  <si>
+    <t>Пересчет иностранной валюты по зарубежной деятельности</t>
+  </si>
+  <si>
+    <t>Всего статей, которые реклассифицированы или могут быть впоследствии реклассифицированы в состав прибыли или убытка (сумма строк 4-6)</t>
+  </si>
+  <si>
+    <t>Статьи, которые не могут быть впоследствии реклассифицированы в состав прибыли или убытка:</t>
+  </si>
+  <si>
+    <t>Переоценка основных средств</t>
+  </si>
+  <si>
+    <t>Прибыли и убытки от инвестиций в долевые финансовые инструменты, учитываемые по справедливой стоимости через прочий совокупный доход</t>
+  </si>
+  <si>
+    <t>Всего статей, которые не могут быть впоследствии реклассифицированы в состав прибыли или убытка (сумма строк 9, 10)</t>
+  </si>
+  <si>
+    <t>Прочий совокупный доход за вычетом подоходного налога (сумма строк 7, 11)</t>
+  </si>
+  <si>
+    <t>Всего совокупного дохода (сумма строк 1, 12)</t>
+  </si>
+  <si>
+    <t>Примечание:* Заполнение строки 1 осуществляется путем переноса сумм из строки 21 Отчета о прибылях и убытках (Приложение 2)</t>
+  </si>
+  <si>
+    <t>** Для КФГД заполнение строки 1 осуществляется путем переноса сумм из строки 34 Отчета о прибылях и убытках (Приложение 24)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*** При заполнении гр.3 и гр.4 положительное изменение отражается со знаком плюс, отрицательное изменение со знаком минус </t>
+  </si>
+  <si>
+    <t>Руководитель              ____________________    ____________________ (подпись)</t>
+  </si>
+  <si>
+    <t>(имя, фамилия и отчество (при его наличии)</t>
+  </si>
+  <si>
+    <t>Главный бухгалтер    ____________________     ____________________ (подпись)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Исполнитель </t>
+  </si>
+  <si>
+    <t>____________________     ____________________ (подпись)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.000_р_._-;\-* #,##0.000_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,39 +192,29 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Times New Roman Cyr"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Times New Roman Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Times New Roman Cyr"/>
+      <i/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -300,12 +250,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -323,111 +272,75 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный_ФормОтчет" xfId="2"/>
     <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -746,8 +659,8 @@
   </sheetPr>
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,7 +1244,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
@@ -1343,12 +1256,12 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -1363,7 +1276,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2" t="s">
@@ -1371,7 +1284,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="6" t="s">
@@ -1386,7 +1299,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1399,20 +1312,20 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
+      <c r="A10" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -1425,313 +1338,311 @@
       <c r="B12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="18">
         <v>1</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="18">
         <v>2</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="18">
         <v>3</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="18">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B15" s="20">
         <v>1</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="11"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="20">
+        <v>2</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+    </row>
+    <row r="18" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="24">
+        <v>3</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="22">
+        <v>4</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+    </row>
+    <row r="20" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="22">
+        <v>5</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="22">
+        <v>6</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+    </row>
+    <row r="22" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="24">
+        <v>7</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+    </row>
+    <row r="24" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="24">
+        <v>8</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="22">
+        <v>9</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="22">
+        <v>10</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="11"/>
+      <c r="G26" s="9"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="24">
+        <v>11</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+    </row>
+    <row r="28" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="20">
+        <v>12</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="10"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="10"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="20">
+        <v>13</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="28"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="31"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="31"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="32"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="31"/>
+      <c r="B38" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="32"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="31"/>
+      <c r="B40" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="31"/>
+      <c r="B42" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="42">
-        <v>2</v>
-      </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-    </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="17">
-        <v>3</v>
-      </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="19">
-        <v>4</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="I25" s="12"/>
-    </row>
-    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="22"/>
-      <c r="G26" s="12"/>
-      <c r="I26" s="12"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="42">
-        <v>6</v>
-      </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="15"/>
-      <c r="G28" s="12"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="15"/>
-      <c r="G29" s="12"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="42">
-        <v>7</v>
-      </c>
-      <c r="C30" s="51"/>
-      <c r="D30" s="49"/>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="47"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="29"/>
-    </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="47"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="47"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="30"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="32"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="31"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="31"/>
       <c r="D43" s="31"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="34"/>
+      <c r="A45" s="13"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="31"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="12"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C47" s="37"/>
+      <c r="C47" s="15"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C48" s="22"/>
+      <c r="C48" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1739,7 +1650,7 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A33:D33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/nicnbk-data/nicnbk-data-service-impl/src/main/resources/export_template/TEMPLATE_NICKMF_cons_KZT_3.xlsx
+++ b/nicnbk-data/nicnbk-data-service-impl/src/main/resources/export_template/TEMPLATE_NICKMF_cons_KZT_3.xlsx
@@ -18,7 +18,7 @@
     <definedName name="GR_CODE_ROW">4583</definedName>
     <definedName name="GR_CODE_SHEET">4</definedName>
     <definedName name="_xlnm.Database">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ОПСД_3!$A$1:$D$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ОПСД_3!$A$1:$D$43</definedName>
   </definedNames>
   <calcPr calcId="152511" iterateCount="10000" iterateDelta="1E-10"/>
   <extLst>
@@ -290,53 +290,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -657,10 +657,10 @@
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1312,20 +1312,20 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -1339,318 +1339,304 @@
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+      <c r="A14" s="17">
         <v>1</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="17">
         <v>2</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="17">
         <v>3</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="19">
         <v>1</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A16" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B16" s="19">
         <v>2</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="23">
+        <v>3</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="24">
-        <v>3</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="10"/>
+      <c r="A18" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="21">
+        <v>4</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
     </row>
     <row r="19" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="22">
-        <v>4</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-    </row>
-    <row r="20" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="A19" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B19" s="21">
         <v>5</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="21">
+        <v>6</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="22">
-        <v>6</v>
+    </row>
+    <row r="21" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="23">
+        <v>7</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
     </row>
-    <row r="22" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="24">
-        <v>7</v>
-      </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-    </row>
-    <row r="24" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+    </row>
+    <row r="23" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B23" s="23">
         <v>8</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B24" s="21">
         <v>9</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="21">
+        <v>10</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="11"/>
+      <c r="G25" s="9"/>
       <c r="I25" s="9"/>
     </row>
     <row r="26" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="22">
-        <v>10</v>
-      </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="11"/>
-      <c r="G26" s="9"/>
-      <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="A26" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B26" s="23">
         <v>11</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-    </row>
-    <row r="28" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+    </row>
+    <row r="27" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="20">
+      <c r="B27" s="19">
         <v>12</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="10"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="10"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="19">
+        <v>13</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
       <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="10"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="20">
-        <v>13</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="G30" s="9"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
+      <c r="A31" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
-        <v>31</v>
-      </c>
+      <c r="A32" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="29"/>
       <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-    </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
-        <v>32</v>
-      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="29"/>
       <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-    </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="30"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
+      <c r="A37" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="30"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="32" t="s">
+      <c r="A38" s="29"/>
+      <c r="B38" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
+      <c r="A39" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="32" t="s">
+      <c r="A40" s="29"/>
+      <c r="B40" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
+      <c r="A41" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="30"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
+      <c r="A42" s="1"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="12"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="12"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C47" s="15"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C48" s="11"/>
+      <c r="C45" s="15"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C46" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A30:D30"/>
     <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A31:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/nicnbk-data/nicnbk-data-service-impl/src/main/resources/export_template/TEMPLATE_NICKMF_cons_KZT_3.xlsx
+++ b/nicnbk-data/nicnbk-data-service-impl/src/main/resources/export_template/TEMPLATE_NICKMF_cons_KZT_3.xlsx
@@ -15,10 +15,10 @@
     <sheet name="ОПСД_3" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Database">#REF!</definedName>
     <definedName name="GR_CODE_ROW">4583</definedName>
     <definedName name="GR_CODE_SHEET">4</definedName>
-    <definedName name="_xlnm.Database">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ОПСД_3!$A$1:$D$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ОПСД_3!$A$1:$D$42</definedName>
   </definedNames>
   <calcPr calcId="152511" iterateCount="10000" iterateDelta="1E-10"/>
   <extLst>
@@ -149,10 +149,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -252,7 +252,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -273,9 +273,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -286,7 +286,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -340,8 +340,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -657,10 +657,10 @@
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,204 +1439,198 @@
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-    </row>
-    <row r="23" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+    <row r="22" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B22" s="23">
         <v>8</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="21">
+        <v>9</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" s="21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
+      <c r="E24" s="11"/>
+      <c r="G24" s="9"/>
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="21">
-        <v>10</v>
-      </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="11"/>
-      <c r="G25" s="9"/>
-      <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+      <c r="A25" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B25" s="23">
         <v>11</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-    </row>
-    <row r="27" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+    </row>
+    <row r="26" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="19">
+        <v>12</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="10"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" s="19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
-      <c r="E27" s="10"/>
       <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="19">
-        <v>13</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-    </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="27"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
       <c r="D30" s="32"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
       <c r="D31" s="32"/>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-    </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="29"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="29"/>
       <c r="B33" s="30"/>
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
+      <c r="A34" s="29" t="s">
+        <v>33</v>
+      </c>
       <c r="B34" s="30"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="30"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="30" t="s">
+        <v>34</v>
+      </c>
       <c r="C35" s="29"/>
       <c r="D35" s="29"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="30" t="s">
-        <v>34</v>
-      </c>
+      <c r="A36" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="30"/>
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="30"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="30" t="s">
+        <v>34</v>
+      </c>
       <c r="C37" s="29"/>
       <c r="D37" s="29"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
+      <c r="A38" s="29" t="s">
+        <v>36</v>
+      </c>
       <c r="B38" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C38" s="29"/>
       <c r="D38" s="29"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="s">
-        <v>36</v>
-      </c>
+      <c r="A39" s="29"/>
       <c r="B39" s="30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="30" t="s">
-        <v>34</v>
-      </c>
+      <c r="A40" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="30"/>
       <c r="C40" s="29"/>
       <c r="D40" s="29"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="12"/>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="15"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C45" s="15"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C46" s="11"/>
+      <c r="C45" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A31:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/nicnbk-data/nicnbk-data-service-impl/src/main/resources/export_template/TEMPLATE_NICKMF_cons_KZT_3.xlsx
+++ b/nicnbk-data/nicnbk-data-service-impl/src/main/resources/export_template/TEMPLATE_NICKMF_cons_KZT_3.xlsx
@@ -18,9 +18,9 @@
     <definedName name="_xlnm.Database">#REF!</definedName>
     <definedName name="GR_CODE_ROW">4583</definedName>
     <definedName name="GR_CODE_SHEET">4</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ОПСД_3!$A$1:$D$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ОПСД_3!$A$1:$D$45</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateCount="10000" iterateDelta="1E-10"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,9 +35,6 @@
     <t>Код формы</t>
   </si>
   <si>
-    <t>ОПСД</t>
-  </si>
-  <si>
     <t>Приложение 3</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>____________________     ____________________ (подпись)</t>
+  </si>
+  <si>
+    <t>ОСД</t>
   </si>
 </sst>
 </file>
@@ -154,7 +154,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +217,11 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -254,7 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -337,6 +342,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -657,10 +668,10 @@
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,22 +1260,22 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1272,7 +1283,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1280,7 +1291,7 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1288,7 +1299,7 @@
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1299,7 +1310,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1313,7 +1324,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
@@ -1321,7 +1332,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
@@ -1340,16 +1351,16 @@
     </row>
     <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="C13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="D13" s="17" t="s">
         <v>11</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1368,7 +1379,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="19">
         <v>1</v>
@@ -1378,259 +1389,280 @@
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="19">
+        <v>2</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+    </row>
+    <row r="18" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="19">
-        <v>2</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-    </row>
-    <row r="17" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="23">
+      <c r="B18" s="23">
         <v>3</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="21">
-        <v>4</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="21">
+        <v>4</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+    </row>
+    <row r="20" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="21">
+        <v>5</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="21">
-        <v>5</v>
-      </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+      <c r="B21" s="21">
+        <v>6</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+    </row>
+    <row r="22" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="21">
-        <v>6</v>
-      </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-    </row>
-    <row r="21" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="B22" s="23">
+        <v>7</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+    </row>
+    <row r="24" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="23">
-        <v>7</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-    </row>
-    <row r="22" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+      <c r="B24" s="34">
+        <v>8</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="23">
-        <v>8</v>
-      </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="B25" s="21">
+        <v>9</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="21">
-        <v>9</v>
-      </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="B26" s="21">
+        <v>10</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="11"/>
+      <c r="G26" s="9"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="21">
-        <v>10</v>
-      </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="11"/>
-      <c r="G24" s="9"/>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="B27" s="34">
+        <v>11</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+    </row>
+    <row r="28" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="23">
-        <v>11</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-    </row>
-    <row r="26" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="B28" s="19">
+        <v>12</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="10"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="10"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="19">
-        <v>12</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="10"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="B30" s="19">
+        <v>13</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="27"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="19">
-        <v>13</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-    </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="32" t="s">
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-    </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-    </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="29"/>
-      <c r="B35" s="30" t="s">
-        <v>34</v>
-      </c>
+      <c r="B35" s="30"/>
       <c r="C35" s="29"/>
       <c r="D35" s="29"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
-        <v>35</v>
-      </c>
+      <c r="A36" s="29"/>
       <c r="B36" s="30"/>
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
-      <c r="B37" s="30" t="s">
-        <v>34</v>
-      </c>
+      <c r="A37" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="30"/>
       <c r="C37" s="29"/>
       <c r="D37" s="29"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
-        <v>36</v>
-      </c>
+      <c r="A38" s="29"/>
       <c r="B38" s="30" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C38" s="29"/>
       <c r="D38" s="29"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="30" t="s">
+      <c r="A39" s="29" t="s">
         <v>34</v>
       </c>
+      <c r="B39" s="30"/>
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="30"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="C40" s="29"/>
       <c r="D40" s="29"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
+      <c r="A41" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="12"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="30"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C44" s="15"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C45" s="11"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="12"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C47" s="15"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C48" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A33:D33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="portrait" r:id="rId1"/>
